--- a/download/Format_import.xlsx
+++ b/download/Format_import.xlsx
@@ -20,18 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">No</t>
   </si>
   <si>
-    <t xml:space="preserve">Username</t>
+    <t xml:space="preserve">Nis</t>
   </si>
   <si>
     <t xml:space="preserve">Nama</t>
   </si>
   <si>
     <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempat_lahir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanggal_Lahir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jenis_kelamin</t>
   </si>
 </sst>
 </file>
@@ -96,10 +105,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -128,13 +137,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -154,10 +167,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A211" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:D214"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -165,7 +178,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="9.14"/>
   </cols>
   <sheetData>
@@ -181,6 +197,15 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
